--- a/excel/templates_siswa.xlsx
+++ b/excel/templates_siswa.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE268B8E-F89B-406B-A15D-D0F753816801}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,40 +15,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>nis</t>
   </si>
   <si>
-    <t>tanggal_lahir</t>
-  </si>
-  <si>
     <t>nama</t>
   </si>
   <si>
     <t>nisn</t>
   </si>
   <si>
-    <t>04.00000</t>
-  </si>
-  <si>
-    <t>2006-11-29</t>
-  </si>
-  <si>
     <t>testing</t>
   </si>
   <si>
     <t>000000</t>
+  </si>
+  <si>
+    <t>1831077</t>
+  </si>
+  <si>
+    <t>1831078</t>
+  </si>
+  <si>
+    <t>1831079</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>000001</t>
+  </si>
+  <si>
+    <t>000002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -169,6 +188,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -204,6 +240,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -379,8 +432,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
@@ -396,30 +449,59 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>